--- a/test_cases/PE-16/TC-02-Contraseña.xlsx
+++ b/test_cases/PE-16/TC-02-Contraseña.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramiro\Desktop\casos de prueba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramiro\Documents\GitHub\TestingAplicaciones-Alvinylasardillas-TPO\test_cases\PE-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B17EA1-41D1-41FE-9AC8-AABA334D7A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6784C53C-2A9D-46F1-9F5E-8F2E58560F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,9 +84,6 @@
     <t>User Stories covered</t>
   </si>
   <si>
-    <t>US-1, US-3</t>
-  </si>
-  <si>
     <t>Automation Status</t>
   </si>
   <si>
@@ -186,19 +183,22 @@
     <t xml:space="preserve">tested  by Ramiro Arago in version 2.1 </t>
   </si>
   <si>
-    <t>Contraseña1 = Hola123!!</t>
-  </si>
-  <si>
     <t>Contraseña2 = df12434c</t>
   </si>
   <si>
     <t>Contraseña3 =</t>
   </si>
   <si>
-    <t>Contraseña = 12s</t>
-  </si>
-  <si>
-    <t>Contraseña = K2354tbgjfghdfhdkjfhnk2</t>
+    <t>Contraseña1 = K2354tbgjfghdfhdkjfhnk</t>
+  </si>
+  <si>
+    <t>Contraseña4 = 12s</t>
+  </si>
+  <si>
+    <t>Contraseña5 = Hola123!!</t>
+  </si>
+  <si>
+    <t>PE-16</t>
   </si>
 </sst>
 </file>
@@ -626,12 +626,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -680,35 +674,30 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -716,34 +705,45 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
@@ -1027,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1045,22 +1045,22 @@
       <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="52"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="53" t="s">
-        <v>51</v>
+      <c r="B2" s="32" t="s">
+        <v>50</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1068,10 +1068,10 @@
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="55"/>
+      <c r="B3" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="34"/>
       <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
@@ -1080,10 +1080,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="42" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1"/>
@@ -1100,7 +1100,7 @@
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="25" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1114,8 +1114,8 @@
       <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="28" t="s">
-        <v>25</v>
+      <c r="E8" s="26" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.35">
@@ -1128,8 +1128,8 @@
       <c r="D9" s="3">
         <v>2</v>
       </c>
-      <c r="E9" s="28" t="s">
-        <v>26</v>
+      <c r="E9" s="26" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="31.5" x14ac:dyDescent="0.35">
@@ -1140,8 +1140,8 @@
       <c r="D10" s="3">
         <v>3</v>
       </c>
-      <c r="E10" s="30" t="s">
-        <v>50</v>
+      <c r="E10" s="28" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="22" x14ac:dyDescent="0.35">
@@ -1149,333 +1149,337 @@
         <v>4</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="D11" s="26">
+      <c r="D11" s="24">
         <v>4</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="22" x14ac:dyDescent="0.35">
+      <c r="D12" s="24">
+        <v>5</v>
+      </c>
+      <c r="E12" s="30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="22" x14ac:dyDescent="0.35">
-      <c r="D12" s="26">
-        <v>5</v>
-      </c>
-      <c r="E12" s="32" t="s">
+    <row r="13" spans="1:5" ht="22" x14ac:dyDescent="0.35">
+      <c r="D13" s="24">
+        <v>6</v>
+      </c>
+      <c r="E13" s="30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="22" x14ac:dyDescent="0.35">
-      <c r="D13" s="26">
-        <v>6</v>
-      </c>
-      <c r="E13" s="32" t="s">
+    <row r="14" spans="1:5" ht="22" x14ac:dyDescent="0.35">
+      <c r="D14" s="24">
+        <v>7</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D15" s="24">
+        <v>8</v>
+      </c>
+      <c r="E15" s="30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="22" x14ac:dyDescent="0.35">
-      <c r="D14" s="26">
-        <v>7</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D15" s="26">
-        <v>8</v>
-      </c>
-      <c r="E15" s="32" t="s">
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="D16" s="24">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="D16" s="26">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="D17" s="26">
+    <row r="17" spans="1:7" ht="42" x14ac:dyDescent="0.35">
+      <c r="D17" s="24">
         <v>10</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="27"/>
+    </row>
+    <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="D18" s="24">
+        <v>11</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="D19" s="24">
+        <v>12</v>
+      </c>
+      <c r="E19" s="27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="D18" s="26">
-        <v>11</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="D19" s="26">
-        <v>12</v>
-      </c>
-      <c r="E19" s="29" t="s">
+    <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="D20" s="24">
+        <v>13</v>
+      </c>
+      <c r="E20" s="27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="D20" s="26">
-        <v>13</v>
-      </c>
-      <c r="E20" s="29" t="s">
+    <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="D21" s="24">
+        <v>14</v>
+      </c>
+      <c r="E21" s="27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="D21" s="26">
-        <v>14</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="36" t="s">
+    <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
-    </row>
-    <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="37"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
-    </row>
-    <row r="25" spans="1:5" ht="24" x14ac:dyDescent="0.35">
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="50"/>
+    </row>
+    <row r="24" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="47"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="53"/>
+    </row>
+    <row r="25" spans="1:7" ht="24" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="55"/>
+      <c r="D25" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="15" t="s">
+      <c r="E25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="31" t="s">
+    </row>
+    <row r="26" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:5" ht="26" x14ac:dyDescent="0.35">
-      <c r="A27" s="18" t="s">
+      <c r="B27" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="C27" s="23"/>
+      <c r="D27" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="23"/>
-    </row>
-    <row r="28" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="21"/>
+    </row>
+    <row r="28" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>1</v>
       </c>
-      <c r="B28" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="35"/>
-    </row>
-    <row r="29" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="36"/>
+      <c r="D28" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="36"/>
+    </row>
+    <row r="29" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>2</v>
       </c>
-      <c r="B29" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="35"/>
-    </row>
-    <row r="30" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="36"/>
+      <c r="D29" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="36"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>3</v>
       </c>
-      <c r="B30" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="35"/>
-    </row>
-    <row r="31" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="36"/>
+      <c r="D30" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="36"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>4</v>
       </c>
-      <c r="B31" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="35"/>
-    </row>
-    <row r="32" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="36"/>
+      <c r="D31" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="36"/>
+    </row>
+    <row r="32" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
         <v>5</v>
       </c>
-      <c r="B32" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="35"/>
+      <c r="B32" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="36"/>
+      <c r="D32" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="36"/>
     </row>
     <row r="33" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11">
         <v>6</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="36"/>
+      <c r="D33" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="36"/>
+    </row>
+    <row r="34" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="31">
+        <v>7</v>
+      </c>
+      <c r="B34" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="34" t="s">
+      <c r="C34" s="42"/>
+      <c r="D34" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="36"/>
+    </row>
+    <row r="35" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="31">
+        <v>8</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="42"/>
+      <c r="D35" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="36"/>
+    </row>
+    <row r="36" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="31">
+        <v>9</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="42"/>
+      <c r="D36" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="36"/>
+    </row>
+    <row r="37" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="31">
+        <v>10</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="42"/>
+      <c r="D37" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="40"/>
+    </row>
+    <row r="38" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="31">
+        <v>11</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="42"/>
+      <c r="D38" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="40"/>
+    </row>
+    <row r="39" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="31">
+        <v>12</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="42"/>
+      <c r="D39" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="45"/>
+    </row>
+    <row r="40" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="31">
+        <v>13</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="42"/>
+      <c r="D40" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="45"/>
+    </row>
+    <row r="41" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="31">
+        <v>14</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="42"/>
+      <c r="D41" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="35"/>
-    </row>
-    <row r="34" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="33">
-        <v>7</v>
-      </c>
-      <c r="B34" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="35"/>
-    </row>
-    <row r="35" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="33">
-        <v>8</v>
-      </c>
-      <c r="B35" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="35"/>
-    </row>
-    <row r="36" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="33">
-        <v>9</v>
-      </c>
-      <c r="B36" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="35"/>
-    </row>
-    <row r="37" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="33">
-        <v>10</v>
-      </c>
-      <c r="B37" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="48"/>
-    </row>
-    <row r="38" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="33">
-        <v>11</v>
-      </c>
-      <c r="B38" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="45"/>
-      <c r="D38" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="50"/>
-    </row>
-    <row r="39" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="33">
-        <v>12</v>
-      </c>
-      <c r="B39" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="46"/>
-    </row>
-    <row r="40" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="33">
-        <v>13</v>
-      </c>
-      <c r="B40" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="46"/>
-    </row>
-    <row r="41" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="33">
-        <v>14</v>
-      </c>
-      <c r="B41" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" s="46"/>
+      <c r="E41" s="38"/>
     </row>
     <row r="43" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="44" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
+  <mergeCells count="32">
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:E24"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D36:E36"/>
@@ -1488,18 +1492,16 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:E24"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B38:C38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E10" r:id="rId1" display="Mail=jaunGim@gmail.com" xr:uid="{C513E64F-9F55-4EF3-AC81-3EFB183932A3}"/>
